--- a/AccuPay/ImportTemplates/accupay-salary-template.xlsx
+++ b/AccuPay/ImportTemplates/accupay-salary-template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AccuPay Salary Template</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Allowance Salary</t>
+  </si>
+  <si>
+    <t>EmployeeRowId</t>
   </si>
 </sst>
 </file>
@@ -98,25 +101,25 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,12 +148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -178,10 +175,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -192,6 +185,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,135 +491,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -639,29 +641,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="16" customWidth="1"/>
-    <col min="5" max="1023" width="9.140625" style="17"/>
-    <col min="1024" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="13" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="0" style="21" hidden="1" customWidth="1"/>
+    <col min="6" max="1023" width="9.140625" style="21"/>
+    <col min="1024" max="1025" width="11.5703125" style="21" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="21" customFormat="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:1024" s="18" customFormat="1">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ1"/>
+      <c r="E1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AMJ1" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="IqT4cDAd1cr0nWfH1LLVNE8MWhAfzkoG9wLUMcyTKuLsCGmp6IRbKNikcd19yCUxb3MHIlp3oWZJsM6MGju9BQ==" saltValue="/VeSQQF1FXoM3djmfdTMSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/AccuPay/ImportTemplates/accupay-salary-template.xlsx
+++ b/AccuPay/ImportTemplates/accupay-salary-template.xlsx
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lambert\accupay\AccuPay\ImportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="h8nPxDaFOl90V67rBlj+f3z5aPJCqTexv2ykK/S3t1BAKEd0Tn7EBousbJJvKrR2fUyayFCPmXhAUqwXJNTEuQ==" workbookSaltValue="d3MH/Po41O59BKIvRDPvew==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -187,14 +188,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,10 +492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -507,17 +508,17 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -636,18 +637,19 @@
   <dimension ref="A1:AMJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="13" customWidth="1"/>
     <col min="3" max="4" width="20.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="6" max="1023" width="9.140625" style="21"/>
-    <col min="1024" max="1025" width="11.5703125" style="21" customWidth="1"/>
-    <col min="1026" max="16384" width="9.140625" style="21"/>
+    <col min="5" max="5" width="15.5703125" style="19" hidden="1" customWidth="1"/>
+    <col min="6" max="1023" width="9.140625" style="19"/>
+    <col min="1024" max="1025" width="11.5703125" style="19" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" s="18" customFormat="1">
@@ -666,11 +668,11 @@
       <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AMJ1" s="21"/>
+      <c r="AMJ1" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IqT4cDAd1cr0nWfH1LLVNE8MWhAfzkoG9wLUMcyTKuLsCGmp6IRbKNikcd19yCUxb3MHIlp3oWZJsM6MGju9BQ==" saltValue="/VeSQQF1FXoM3djmfdTMSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QimzrA4BEZ6k16CW9OnloTomijkibjroRzGVjRHKabkYgDgu4lyRTnMQSOM0QPenu7zHODGhuKXpnSWZ9DMShg==" saltValue="/T7vXjyytJjW43vO18XF3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>